--- a/Thesis/Images/Ti-6246/Microstructures/Edited/Ti6246-1.1.1-CS (500x) - Threshold.xlsx
+++ b/Thesis/Images/Ti-6246/Microstructures/Edited/Ti6246-1.1.1-CS (500x) - Threshold.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Solidity</t>
+  </si>
+  <si>
+    <t>Area - 145.73 * 107.25</t>
   </si>
 </sst>
 </file>
@@ -898,9 +901,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M457"/>
+  <dimension ref="A1:P457"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
+      <selection activeCell="Q443" sqref="Q443"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -18616,7 +18621,7 @@
         <v>0.56699999999999995</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>432</v>
       </c>
@@ -18657,7 +18662,7 @@
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>433</v>
       </c>
@@ -18698,7 +18703,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>434</v>
       </c>
@@ -18739,7 +18744,7 @@
         <v>0.60299999999999998</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>435</v>
       </c>
@@ -18780,7 +18785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>436</v>
       </c>
@@ -18821,7 +18826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>437</v>
       </c>
@@ -18861,8 +18866,11 @@
       <c r="M438">
         <v>0.67300000000000004</v>
       </c>
-    </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P438" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="439" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>438</v>
       </c>
@@ -18903,7 +18911,7 @@
         <v>0.88900000000000001</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>439</v>
       </c>
@@ -18944,7 +18952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>440</v>
       </c>
@@ -18985,7 +18993,7 @@
         <v>0.83199999999999996</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>441</v>
       </c>
@@ -19026,7 +19034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>442</v>
       </c>
@@ -19067,7 +19075,7 @@
         <v>0.93300000000000005</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>443</v>
       </c>
@@ -19108,7 +19116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>444</v>
       </c>
@@ -19149,7 +19157,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>445</v>
       </c>
@@ -19190,7 +19198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>446</v>
       </c>
@@ -19231,7 +19239,7 @@
         <v>0.65900000000000003</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>447</v>
       </c>

--- a/Thesis/Images/Ti-6246/Microstructures/Edited/Ti6246-1.1.1-CS (500x) - Threshold.xlsx
+++ b/Thesis/Images/Ti-6246/Microstructures/Edited/Ti6246-1.1.1-CS (500x) - Threshold.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>%Area</t>
+  </si>
+  <si>
+    <t>Area - 146.7 * 107.97</t>
   </si>
 </sst>
 </file>
@@ -868,13 +871,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C167"/>
+  <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -885,7 +890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -895,8 +900,11 @@
       <c r="C2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -907,7 +915,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -918,7 +926,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -929,7 +937,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -940,7 +948,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -951,7 +959,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -962,7 +970,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -973,7 +981,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -984,7 +992,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -995,7 +1003,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1006,7 +1014,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1017,7 +1025,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1028,7 +1036,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1039,7 +1047,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>

--- a/Thesis/Images/Ti-6246/Microstructures/Edited/Ti6246-1.1.1-CS (500x) - Threshold.xlsx
+++ b/Thesis/Images/Ti-6246/Microstructures/Edited/Ti6246-1.1.1-CS (500x) - Threshold.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Ti6246-1.1.1-CS (500x) - Thresh" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="171027" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -27,10 +27,13 @@
     <t>Area</t>
   </si>
   <si>
-    <t>%Area</t>
+    <t>Area - 146.7 * 107.97</t>
   </si>
   <si>
-    <t>Area - 146.7 * 107.97</t>
+    <t>STD Dev.</t>
+  </si>
+  <si>
+    <t>AVG.</t>
   </si>
 </sst>
 </file>
@@ -874,7 +877,7 @@
   <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,9 +889,6 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -897,11 +897,8 @@
       <c r="B2">
         <v>11.599</v>
       </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -911,9 +908,6 @@
       <c r="B3">
         <v>2.9159999999999999</v>
       </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -922,9 +916,6 @@
       <c r="B4">
         <v>7.5529999999999999</v>
       </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -933,9 +924,6 @@
       <c r="B5">
         <v>155.79499999999999</v>
       </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -944,9 +932,6 @@
       <c r="B6">
         <v>59.52</v>
       </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -955,8 +940,12 @@
       <c r="B7">
         <v>0.47299999999999998</v>
       </c>
-      <c r="C7">
-        <v>100</v>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <f>STDEV(B2:B167)</f>
+        <v>34.811176702197827</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -966,8 +955,12 @@
       <c r="B8">
         <v>7.8550000000000004</v>
       </c>
-      <c r="C8">
-        <v>100</v>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <f>AVERAGE(B2:B167)</f>
+        <v>22.581789156626485</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -977,9 +970,6 @@
       <c r="B9">
         <v>11.625999999999999</v>
       </c>
-      <c r="C9">
-        <v>100</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -988,9 +978,6 @@
       <c r="B10">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C10">
-        <v>100</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -999,9 +986,6 @@
       <c r="B11">
         <v>60.228999999999999</v>
       </c>
-      <c r="C11">
-        <v>100</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1010,9 +994,6 @@
       <c r="B12">
         <v>13.438000000000001</v>
       </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1021,9 +1002,6 @@
       <c r="B13">
         <v>6.9880000000000004</v>
       </c>
-      <c r="C13">
-        <v>100</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1032,9 +1010,6 @@
       <c r="B14">
         <v>41.747</v>
       </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1043,9 +1018,6 @@
       <c r="B15">
         <v>108.229</v>
       </c>
-      <c r="C15">
-        <v>100</v>
-      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1054,1669 +1026,1213 @@
       <c r="B16">
         <v>42.417000000000002</v>
       </c>
-      <c r="C16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>27.547000000000001</v>
       </c>
-      <c r="C17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>3.4940000000000002</v>
       </c>
-      <c r="C18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>54.817</v>
       </c>
-      <c r="C19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>19.100000000000001</v>
       </c>
-      <c r="C20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>85.594999999999999</v>
       </c>
-      <c r="C21">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>29.254000000000001</v>
       </c>
-      <c r="C22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>4.2430000000000003</v>
       </c>
-      <c r="C23">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>3.9E-2</v>
       </c>
-      <c r="C24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>120.827</v>
       </c>
-      <c r="C25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>10.903</v>
       </c>
-      <c r="C27">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>5.6349999999999998</v>
       </c>
-      <c r="C28">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>2.036</v>
       </c>
-      <c r="C29">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>34.85</v>
       </c>
-      <c r="C30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="C31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C32">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <v>77.778999999999996</v>
       </c>
-      <c r="C33">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C34">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <v>22.515000000000001</v>
       </c>
-      <c r="C35">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
         <v>1.4319999999999999</v>
       </c>
-      <c r="C36">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C37">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
         <v>32.616999999999997</v>
       </c>
-      <c r="C38">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
         <v>46.698999999999998</v>
       </c>
-      <c r="C39">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
         <v>1.1950000000000001</v>
       </c>
-      <c r="C40">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C41">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
         <v>143.26300000000001</v>
       </c>
-      <c r="C42">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
         <v>3.14</v>
       </c>
-      <c r="C43">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="C44">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <v>39.146000000000001</v>
       </c>
-      <c r="C45">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C46">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
         <v>0.35499999999999998</v>
       </c>
-      <c r="C47">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
         <v>32.512</v>
       </c>
-      <c r="C48">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <v>36.097999999999999</v>
       </c>
-      <c r="C49">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
         <v>0.158</v>
       </c>
-      <c r="C50">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
         <v>0.95899999999999996</v>
       </c>
-      <c r="C51">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
         <v>47.737000000000002</v>
       </c>
-      <c r="C52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
         <v>0.36799999999999999</v>
       </c>
-      <c r="C53">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
         <v>12.558</v>
       </c>
-      <c r="C54">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
         <v>33.734000000000002</v>
       </c>
-      <c r="C55">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
         <v>4.6630000000000003</v>
       </c>
-      <c r="C56">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
         <v>2.3780000000000001</v>
       </c>
-      <c r="C57">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
         <v>11.337</v>
       </c>
-      <c r="C58">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="C59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
         <v>36.308</v>
       </c>
-      <c r="C60">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
         <v>1.4710000000000001</v>
       </c>
-      <c r="C61">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
         <v>14.791</v>
       </c>
-      <c r="C62">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
         <v>13.714</v>
       </c>
-      <c r="C63">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
         <v>3.9E-2</v>
       </c>
-      <c r="C64">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
         <v>0.55200000000000005</v>
       </c>
-      <c r="C65">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
         <v>9.8130000000000006</v>
       </c>
-      <c r="C66">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
         <v>0.52500000000000002</v>
       </c>
-      <c r="C67">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C68">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
         <v>37.097000000000001</v>
       </c>
-      <c r="C69">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
         <v>147.322</v>
       </c>
-      <c r="C70">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
         <v>39.658000000000001</v>
       </c>
-      <c r="C71">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
         <v>43.691000000000003</v>
       </c>
-      <c r="C72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
         <v>18.22</v>
       </c>
-      <c r="C73">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
         <v>7.1719999999999997</v>
       </c>
-      <c r="C74">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
         <v>0.68300000000000005</v>
       </c>
-      <c r="C75">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
         <v>3.915</v>
       </c>
-      <c r="C76">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C77">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
         <v>1.931</v>
       </c>
-      <c r="C78">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
         <v>2.496</v>
       </c>
-      <c r="C79">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
         <v>110.41</v>
       </c>
-      <c r="C80">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
         <v>3.2320000000000002</v>
       </c>
-      <c r="C81">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
         <v>32.945999999999998</v>
       </c>
-      <c r="C82">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
         <v>0.55200000000000005</v>
       </c>
-      <c r="C83">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C84">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
         <v>3.9E-2</v>
       </c>
-      <c r="C85">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
         <v>0.68300000000000005</v>
       </c>
-      <c r="C86">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
         <v>61.49</v>
       </c>
-      <c r="C87">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
         <v>26.614000000000001</v>
       </c>
-      <c r="C88">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
         <v>185.64099999999999</v>
       </c>
-      <c r="C89">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
         <v>19.414999999999999</v>
       </c>
-      <c r="C90">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C91">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
         <v>14.91</v>
       </c>
-      <c r="C92">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
         <v>86.83</v>
       </c>
-      <c r="C93">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
         <v>7.0410000000000004</v>
       </c>
-      <c r="C94">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
         <v>14.2</v>
       </c>
-      <c r="C95">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
         <v>10.744999999999999</v>
       </c>
-      <c r="C96">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="C97">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
         <v>1.655</v>
       </c>
-      <c r="C98">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C99">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
         <v>38.463000000000001</v>
       </c>
-      <c r="C100">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
         <v>32.630000000000003</v>
       </c>
-      <c r="C101">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102">
         <v>90.272000000000006</v>
       </c>
-      <c r="C102">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103">
         <v>7.2910000000000004</v>
       </c>
-      <c r="C103">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104">
         <v>20.045999999999999</v>
       </c>
-      <c r="C104">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105">
         <v>2.798</v>
       </c>
-      <c r="C105">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106">
         <v>25.747</v>
       </c>
-      <c r="C106">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107">
         <v>14.345000000000001</v>
       </c>
-      <c r="C107">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="C108">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109">
         <v>15.396000000000001</v>
       </c>
-      <c r="C109">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110">
         <v>8.6170000000000009</v>
       </c>
-      <c r="C110">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="C111">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="C112">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113">
         <v>25.629000000000001</v>
       </c>
-      <c r="C113">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C114">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C115">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C116">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117">
         <v>52.137999999999998</v>
       </c>
-      <c r="C117">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C118">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C119">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120">
         <v>6.3449999999999998</v>
       </c>
-      <c r="C120">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121">
         <v>42.377000000000002</v>
       </c>
-      <c r="C121">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122">
         <v>176.30099999999999</v>
       </c>
-      <c r="C122">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123">
         <v>59.573</v>
       </c>
-      <c r="C123">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124">
         <v>32.368000000000002</v>
       </c>
-      <c r="C124">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125">
         <v>4.6500000000000004</v>
       </c>
-      <c r="C125">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126">
         <v>1.2869999999999999</v>
       </c>
-      <c r="C126">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127">
         <v>5.8460000000000001</v>
       </c>
-      <c r="C127">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128">
         <v>5.2539999999999996</v>
       </c>
-      <c r="C128">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129">
         <v>6.45</v>
       </c>
-      <c r="C129">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130">
         <v>14.882999999999999</v>
       </c>
-      <c r="C130">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131">
         <v>19.428000000000001</v>
       </c>
-      <c r="C131">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C132">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133">
         <v>6.6210000000000004</v>
       </c>
-      <c r="C133">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C134">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135">
         <v>30.672999999999998</v>
       </c>
-      <c r="C135">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136">
         <v>32.866999999999997</v>
       </c>
-      <c r="C136">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C137">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138">
         <v>38.962000000000003</v>
       </c>
-      <c r="C138">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139">
         <v>41.576000000000001</v>
       </c>
-      <c r="C139">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140">
         <v>11.691000000000001</v>
       </c>
-      <c r="C140">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C141">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142">
         <v>34.613999999999997</v>
       </c>
-      <c r="C142">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143">
         <v>7.9080000000000004</v>
       </c>
-      <c r="C143">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144">
         <v>4.2039999999999997</v>
       </c>
-      <c r="C144">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145">
         <v>7.4610000000000003</v>
       </c>
-      <c r="C145">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146">
         <v>11.98</v>
       </c>
-      <c r="C146">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C147">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148">
         <v>6.8310000000000004</v>
       </c>
-      <c r="C148">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="C149">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150">
         <v>83.099000000000004</v>
       </c>
-      <c r="C150">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151">
         <v>9.077</v>
       </c>
-      <c r="C151">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="C152">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="C153">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154">
         <v>31.317</v>
       </c>
-      <c r="C154">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155">
         <v>84.793999999999997</v>
       </c>
-      <c r="C155">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156">
         <v>4.8739999999999997</v>
       </c>
-      <c r="C156">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157">
         <v>66.350999999999999</v>
       </c>
-      <c r="C157">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158">
         <v>3.6779999999999999</v>
       </c>
-      <c r="C158">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159">
         <v>13.923999999999999</v>
       </c>
-      <c r="C159">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160">
         <v>8.6440000000000001</v>
       </c>
-      <c r="C160">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161">
         <v>7.0279999999999996</v>
       </c>
-      <c r="C161">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162">
         <v>13.412000000000001</v>
       </c>
-      <c r="C162">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163">
         <v>7.9870000000000001</v>
       </c>
-      <c r="C163">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164">
         <v>8.7089999999999996</v>
       </c>
-      <c r="C164">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165">
         <v>3.8090000000000002</v>
       </c>
-      <c r="C165">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166">
         <v>16.143999999999998</v>
       </c>
-      <c r="C166">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167">
         <v>1.34</v>
-      </c>
-      <c r="C167">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
